--- a/medicine/Psychotrope/Welschriesling/Welschriesling.xlsx
+++ b/medicine/Psychotrope/Welschriesling/Welschriesling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le welschriesling est un cépage blanc très répandu en Europe centrale. Il est cultivé sous ce nom en Autriche, en Roumanie sous le nom de riesling italien, dans le nord est de l'Italie sous le nom de riesling italico, en Hongrie en tant qu’olaszriesling, en Bulgarie comme italianski rizling, en Tchéquie sous l'appellation ryzlink vlašský, en Slovénie sous l'appellation de laški rizling et en Croatie graševina.
